--- a/QA/testcases/LLS/Provider/008_L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
+++ b/QA/testcases/LLS/Provider/008_L_Prov_Patient_App_Create_PCase_Positive_POE2.xlsx
@@ -147,196 +147,196 @@
     <t>NAME_TAB_ADD_PROVIDER</t>
   </si>
   <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>Select first provider</t>
+  </si>
+  <si>
+    <t>Provier selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Add Provider</t>
+  </si>
+  <si>
+    <t>Provider added</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NEW_CLOSE_BUTTON</t>
+  </si>
+  <si>
+    <t>Close the popup</t>
+  </si>
+  <si>
+    <t>Popup closed</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>Existing provider search</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>3. Select Other</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_TO</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
     <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>Select first provider</t>
-  </si>
-  <si>
-    <t>Provier selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Add Provider</t>
-  </si>
-  <si>
-    <t>Provider added</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>NEW_CLOSE_BUTTON</t>
-  </si>
-  <si>
-    <t>Close the popup</t>
-  </si>
-  <si>
-    <t>Popup closed</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>Existing provider search</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>3. Select Other</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_TO</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_ADDRESS</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
   </si>
   <si>
     <t>CLAIM_PAYABLE_STATE</t>
@@ -1053,7 +1053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1119,21 +1119,6 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399914548173467"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,13 +1252,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,16 +1285,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1318,19 +1303,19 @@
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1394,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1406,9 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:G112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1944,7 +1927,9 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1962,7 +1947,9 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1980,8 +1967,8 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>4</v>
+      <c r="A7" s="8">
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -2003,7 +1990,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -2018,8 +2005,8 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>6</v>
+      <c r="A9" s="8">
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>21</v>
@@ -2041,7 +2028,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
@@ -2056,8 +2043,8 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>8</v>
+      <c r="A11" s="8">
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>21</v>
@@ -2079,7 +2066,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -2094,8 +2081,8 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
-        <v>10</v>
+      <c r="A13" s="8">
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>21</v>
@@ -2117,7 +2104,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
@@ -2132,8 +2119,8 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
-        <v>12</v>
+      <c r="A15" s="8">
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>21</v>
@@ -2153,7 +2140,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
@@ -2168,8 +2155,8 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>14</v>
+      <c r="A17" s="8">
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>21</v>
@@ -2187,7 +2174,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -2202,32 +2189,32 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="8">
-        <v>2</v>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
@@ -2236,22 +2223,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>18</v>
+      <c r="A21" s="8">
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
@@ -2260,20 +2247,20 @@
         <v>15</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>11</v>
@@ -2292,8 +2279,8 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
-        <v>20</v>
+      <c r="A23" s="8">
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>21</v>
@@ -2302,20 +2289,20 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>21</v>
@@ -2324,20 +2311,20 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
-        <v>22</v>
+      <c r="A25" s="8">
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
@@ -2353,7 +2340,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>21</v>
@@ -2362,7 +2349,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2370,8 +2357,8 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
-        <v>24</v>
+      <c r="A27" s="8">
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>21</v>
@@ -2380,20 +2367,20 @@
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>21</v>
@@ -2402,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2410,8 +2397,8 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
-        <v>26</v>
+      <c r="A29" s="8">
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>21</v>
@@ -2420,20 +2407,20 @@
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>14</v>
@@ -2442,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7">
         <v>200</v>
@@ -2452,8 +2439,8 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
-        <v>28</v>
+      <c r="A31" s="8">
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>21</v>
@@ -2462,20 +2449,20 @@
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>11</v>
@@ -2490,20 +2477,20 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
-        <v>30</v>
+      <c r="A33" s="8">
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2511,31 +2498,31 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
-        <v>32</v>
+      <c r="A35" s="8">
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>21</v>
@@ -2544,20 +2531,20 @@
         <v>22</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -2572,8 +2559,8 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
-        <v>34</v>
+      <c r="A37" s="8">
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>21</v>
@@ -2582,7 +2569,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2591,27 +2578,27 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
-        <v>36</v>
+      <c r="A39" s="8">
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>21</v>
@@ -2620,7 +2607,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2629,7 +2616,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>11</v>
@@ -2644,8 +2631,8 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
-        <v>38</v>
+      <c r="A41" s="8">
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>21</v>
@@ -2653,21 +2640,21 @@
       <c r="C41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>76</v>
+      <c r="D41" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>11</v>
@@ -2682,52 +2669,52 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
-        <v>40</v>
+      <c r="A43" s="8">
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
-        <v>42</v>
+      <c r="A45" s="8">
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>21</v>
@@ -2749,7 +2736,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>11</v>
@@ -2764,11 +2751,11 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
-        <v>44</v>
+      <c r="A47" s="8">
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>22</v>
@@ -2789,7 +2776,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>21</v>
@@ -2808,8 +2795,8 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
-        <v>46</v>
+      <c r="A49" s="8">
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -2825,7 +2812,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>21</v>
@@ -2842,8 +2829,8 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
-        <v>48</v>
+      <c r="A51" s="8">
+        <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>11</v>
@@ -2859,10 +2846,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>22</v>
@@ -2871,19 +2858,19 @@
         <v>39</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
-        <v>50</v>
+      <c r="A53" s="8">
+        <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>14</v>
@@ -2892,22 +2879,22 @@
         <v>15</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>21</v>
@@ -2916,20 +2903,20 @@
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
-        <v>52</v>
+      <c r="A55" s="8">
+        <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>11</v>
@@ -2949,7 +2936,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>21</v>
@@ -2958,20 +2945,20 @@
         <v>22</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
-        <v>54</v>
+      <c r="A57" s="8">
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>21</v>
@@ -2980,20 +2967,20 @@
         <v>22</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>11</v>
@@ -3008,17 +2995,17 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3027,29 +3014,29 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
-        <v>58</v>
+      <c r="A61" s="8">
+        <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>21</v>
@@ -3058,7 +3045,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -3067,7 +3054,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>21</v>
@@ -3076,20 +3063,20 @@
         <v>22</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
-        <v>60</v>
+      <c r="A63" s="8">
+        <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>14</v>
@@ -3098,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" s="8">
         <v>200</v>
@@ -3109,7 +3096,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>21</v>
@@ -3118,20 +3105,20 @@
         <v>22</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="8">
         <v>64</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="7">
-        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -3147,51 +3134,51 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
-        <v>64</v>
+      <c r="A67" s="8">
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>21</v>
@@ -3200,20 +3187,20 @@
         <v>22</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
-        <v>66</v>
+      <c r="A69" s="8">
+        <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>11</v>
@@ -3229,7 +3216,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>21</v>
@@ -3238,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -3246,20 +3233,20 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
-        <v>68</v>
+      <c r="A71" s="8">
+        <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -3267,7 +3254,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>21</v>
@@ -3276,7 +3263,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -3284,8 +3271,8 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
-        <v>70</v>
+      <c r="A73" s="8">
+        <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>11</v>
@@ -3301,7 +3288,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>21</v>
@@ -3309,21 +3296,21 @@
       <c r="C74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>76</v>
+      <c r="D74" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
-        <v>72</v>
+      <c r="A75" s="8">
+        <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>11</v>
@@ -3339,51 +3326,51 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>74</v>
+      <c r="A77" s="8">
+        <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>21</v>
@@ -3404,8 +3391,8 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
-        <v>76</v>
+      <c r="A79" s="8">
+        <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>11</v>
@@ -3421,10 +3408,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>22</v>
@@ -3433,10 +3420,10 @@
         <v>88</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>91</v>
@@ -3444,20 +3431,20 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
-        <v>78</v>
+      <c r="A81" s="8">
+        <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -3465,27 +3452,27 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
-        <v>80</v>
+      <c r="A83" s="8">
+        <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>14</v>
@@ -3494,10 +3481,10 @@
         <v>15</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -3505,10 +3492,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>22</v>
@@ -3524,8 +3511,8 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
-        <v>82</v>
+      <c r="A85" s="8">
+        <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>103</v>
@@ -3545,7 +3532,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>21</v>
@@ -3564,8 +3551,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
-        <v>84</v>
+      <c r="A87" s="8">
+        <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>11</v>
@@ -3581,7 +3568,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>21</v>
@@ -3598,8 +3585,8 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>86</v>
+      <c r="A89" s="8">
+        <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>11</v>
@@ -3615,10 +3602,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>22</v>
@@ -3627,19 +3614,19 @@
         <v>39</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
-        <v>88</v>
+      <c r="A91" s="8">
+        <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>14</v>
@@ -3648,22 +3635,22 @@
         <v>15</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>21</v>
@@ -3672,20 +3659,20 @@
         <v>15</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
-        <v>90</v>
+      <c r="A93" s="8">
+        <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>11</v>
@@ -3705,7 +3692,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>21</v>
@@ -3714,20 +3701,20 @@
         <v>22</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
-        <v>92</v>
+      <c r="A95" s="8">
+        <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>21</v>
@@ -3736,20 +3723,20 @@
         <v>22</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>11</v>
@@ -3764,8 +3751,8 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
-        <v>94</v>
+      <c r="A97" s="8">
+        <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>21</v>
@@ -3774,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -3783,7 +3770,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>21</v>
@@ -3792,20 +3779,20 @@
         <v>22</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="7">
-        <v>96</v>
+      <c r="A99" s="8">
+        <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>21</v>
@@ -3814,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -3823,7 +3810,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>21</v>
@@ -3832,20 +3819,20 @@
         <v>22</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
-        <v>98</v>
+      <c r="A101" s="8">
+        <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>14</v>
@@ -3854,7 +3841,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E101" s="8">
         <v>200</v>
@@ -3865,7 +3852,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>21</v>
@@ -3874,20 +3861,20 @@
         <v>22</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
-        <v>100</v>
+      <c r="A103" s="8">
+        <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>11</v>
@@ -3903,51 +3890,51 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
-        <v>102</v>
+      <c r="A105" s="8">
+        <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>21</v>
@@ -3956,20 +3943,20 @@
         <v>22</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
-        <v>104</v>
+      <c r="A107" s="8">
+        <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>11</v>
@@ -3985,7 +3972,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>21</v>
@@ -3994,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -4002,20 +3989,20 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
-        <v>106</v>
+      <c r="A109" s="8">
+        <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -4023,7 +4010,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>21</v>
@@ -4032,7 +4019,7 @@
         <v>22</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -4040,8 +4027,8 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="7">
-        <v>108</v>
+      <c r="A111" s="8">
+        <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>11</v>
@@ -4057,7 +4044,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>21</v>
@@ -4065,21 +4052,21 @@
       <c r="C112" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>76</v>
+      <c r="D112" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>110</v>
+      <c r="A113" s="8">
+        <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>11</v>
@@ -4095,51 +4082,51 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="7">
-        <v>112</v>
+      <c r="A115" s="8">
+        <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>21</v>
@@ -4160,8 +4147,8 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="7">
-        <v>114</v>
+      <c r="A117" s="8">
+        <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>11</v>
@@ -4176,7 +4163,7 @@
       <c r="H117" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B9 B4:B6 C2:C3">
       <formula1/>
     </dataValidation>
@@ -4188,6 +4175,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B11:B12 B13:B14">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 C41 B74 C74 B112 C112">
       <formula1>[6]DataList!#REF!</formula1>
@@ -4342,7 +4332,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4362,7 +4352,7 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -4390,7 +4380,7 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -4400,7 +4390,7 @@
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -4595,7 +4585,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -4757,7 +4747,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="3:3">
